--- a/samples/2-Sheets-Sample-SA-Contractors.xlsx
+++ b/samples/2-Sheets-Sample-SA-Contractors.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="22368" windowHeight="9480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1-2024" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1-2025" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2-2022" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -15,20 +15,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="348">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>id</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Member Since</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -59,52 +56,180 @@
     <t>Activities</t>
   </si>
   <si>
-    <t>شركة رواسي سما للمقاولات</t>
-  </si>
-  <si>
-    <t>305530557</t>
+    <t>شركة عوارض للمقاولات العامة</t>
+  </si>
+  <si>
+    <t>160916095</t>
   </si>
   <si>
     <t>مقاول سعودي</t>
   </si>
   <si>
-    <t>2023/02/05</t>
-  </si>
-  <si>
-    <t>منشأة متناهية الصغر</t>
-  </si>
-  <si>
-    <t>9 س</t>
-  </si>
-  <si>
-    <t>+966500012488</t>
-  </si>
-  <si>
-    <t>ce3@hotmail.com</t>
-  </si>
-  <si>
-    <t>حفر الباطن</t>
-  </si>
-  <si>
-    <t>الشرقية</t>
+    <t>منشأة صغيرة</t>
+  </si>
+  <si>
+    <t>90 س</t>
+  </si>
+  <si>
+    <t>+966112090111</t>
+  </si>
+  <si>
+    <t>fared@fared-est.com</t>
+  </si>
+  <si>
+    <t>الرياض</t>
   </si>
   <si>
     <t>عنوان
-الوليد بن عبدالملك, 3090 حي المصيف,8087, 39921 حفر الباطن المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الرخص الانشائية , مراكز الخدمة , تسوير الأراضي الفضاء , تسوير مواقع الأعمال الأنشائية , المطاعم و المطابخ , المستودعات والورش والمخازن , البقالات و التموينات و الأسواق المركزية , المباني المهنية</t>
-  </si>
-  <si>
-    <t>مقاولات عامه - التشييد - ادارة مشاريع - تأجير معدات</t>
+الرياض - حي الازدهار - طريق الامام سعود بن عبدالعزيز بن محمد</t>
+  </si>
+  <si>
+    <t>شركة عوارض للمقاولات العامه</t>
   </si>
   <si>
     <t>تشييد المباني
 تشييد المباني
 الإنشاءات العامة للمباني السكنية
 الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
-الإنشاءات العامة للمباني الغير السكنية المطارات
-الإنشاءات العامة للمباني الغير السكنية الحديدية
+الإنشاءات العامة للمباني الغير السكنية  المطارات
+الإنشاءات العامة للمباني الغير السكنية  الحديدية
+الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
+إنشاءات المباني الجاهزة في المواقع
+ترميمات المباني السكنية والغير سكنية
+الهندسة المدنية
+إنشاء الطرق وخطوط السكك الحديدية
+إنشاء واصلاح الطرق  والشوارع والارصفة ومستلزمات الطرق
+إنشاء واصلاح الجسور والانفاق
+إنشاء واصلاح خطوط السكك الحديدية
+أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها  لم ترد في مكان آخر
+إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق
+إصلاح وصيانة الجسور والأنفاق
+إصلاح وصيانة خطوط السكك الحديدية
+تشييد المشاريع الخاصة بالمنافع
+تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها
+تمديد انابيب النفط والغاز
+إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه
+إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها
+إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات
+إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات
+إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار
+أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق
+إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه
+إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية
+إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات
+إصلاح وصيانة محطات الطاقة الكهربائية والمحولات
+إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار
+أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى
+إنشاء محطات التكرير والبتروكيماويات والمصافي
+إنشاء ارصفة الموانيء والإنشاءات البحرية
+إنشاء المواني والمراسى السياحية (المارينا)
+إنشاء السدود
+تنظيف الممرات المائية
+إنشاء كاسرات الأمواج والحماية للأرصفة
+إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي
+إصلاح وصيانة السدود
+إصلاح وصيانة أرصفة الموانئ والمرافق البحرية
+أنشطة التشييد المتخصصة
+الهدم
+هدم وإزالة المباني وغيرها
+أنشطة أخرى من الهدم
+تحضير الموقع
+اعداد وتجهيز المواقع من الحفر والتسوية
+صب القواعد والاساسات
+سحب المياه الجوفية وتجفيف المواقع
+التركيبات الكهربائية
+تمديد الاسلاك الكهربائية
+تمديد  اسلاك الاتصالات
+تمديدات  الشبكات
+أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات
+تركيب وتمديد شبكات التلفزيون والستلايت
+تركيب وتمديد شبكات الكمبيوتر والاتصالات
+أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات
+تركيب انظمة الاضاءة
+تركيب انظمة  انذار الحريق
+تركيب انظمة  انذار السرقة
+أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة
+تركيب انظمة اضاءة الطرق ومهابط الطائرات
+تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين
+التركيبات الكهربائية الأخرى
+تركيب وصيانة أجهزة ومعدات الإنذار من الحريق
+تركيب انظمة  انذار السرقة
+تركيب وصيانة الأجهزة الأمنية
+تركيب وصيانة أجهزة السلامة المرورية
+أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة
+أعمال السباكة والتدفئة وتكييف الهواء
+تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها
+تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها
+تركيب الادوات الصحية وصيانتها واصلاحها
+تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها
+تمديدات انابيب الغاز وصيانتها واصلاحها
+تمديدات انابيب البخار وصيانتها واصلاحها
+تمديدات انابيب الحريق وصيانتها واصلاحها
+تمديدات انابيب الري وصيانتها واصلاحها
+تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح
+تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها
+تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح
+تركيبات إنشائية أخرى
+تركيب وإصلاح وصيانة مانعه الصواعق
+تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات
+اكمال المباني وتشطيبها
+تشطيب المباني
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ  المعدنية
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق
+تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب
+تركيب السيراميك والكاشي
+تركيب الرخام
+تركيب الحجر
+تركيب القرميد
+أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد
+تغطية الارضيات خشب الباركيه
+تغطية الارضيات بالمطاط والمشمع والبلاستيك
+تغطية ارضيات بانواع اخرى
+أعمال وتركيب الديكورات
+أعمال التزيين ولصق  ورق الحائط
+تركيب الديكورات والتزيين وورق الحائط الأخرى
+أعمال التجصيص والمساح
+أعمال الدهانات والطلاء للمباني الداخلية والخارجية
+أعمال الدهانات والطلاء  لهياكل الهندسة الحديثة
+أنشطة أخرى من أعمال التجصيص والدهانات والطلاء
+تركيب الزجاج والمرايا للمباني
+تركيب زجاج واجهات الابراج
+أنشطة أخرى من تركيب الزجاج والمرايا
+تنظيف المباني الجديدة بعد الإنشاء
+التركيبات الداخلية للمحلات والمباني المتحركة والقوارب
+تركيب الأثاث
+أعمال أخرى لإنهاء المباني وتجهيزها</t>
+  </si>
+  <si>
+    <t>مؤسسة منى نزال دحيدح الحربي للمقاولات العامة</t>
+  </si>
+  <si>
+    <t>232123211</t>
+  </si>
+  <si>
+    <t>منشأة متناهية الصغر</t>
+  </si>
+  <si>
+    <t>0 س</t>
+  </si>
+  <si>
+    <t>f15-f20@hotmail.com</t>
+  </si>
+  <si>
+    <t>بريدة</t>
+  </si>
+  <si>
+    <t>القصيم</t>
+  </si>
+  <si>
+    <t>تشييد المباني
+تشييد المباني
+الإنشاءات العامة للمباني السكنية
+الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
+الإنشاءات العامة للمباني الغير السكنية  المطارات
+الإنشاءات العامة للمباني الغير السكنية  الحديدية
 الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
 إنشاءات المباني الجاهزة في المواقع
 ترميمات المباني السكنية والغير سكنية
@@ -120,15 +245,24 @@
 أنشطة أخرى لتحضير الموقع
 التركيبات الكهربائية
 تمديد الاسلاك الكهربائية
-تمديد اسلاك الاتصالات
-تمديدات الشبكات
+تمديد  اسلاك الاتصالات
+تمديدات  الشبكات
 أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات
 تركيب وتمديد شبكات التلفزيون والستلايت
 تركيب وتمديد شبكات الكمبيوتر والاتصالات
 أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات
 تركيب انظمة الاضاءة
+تركيب انظمة  انذار الحريق
+تركيب انظمة  انذار السرقة
+أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة
+تركيب انظمة اضاءة الطرق ومهابط الطائرات
 تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين
 التركيبات الكهربائية الأخرى
+تركيب وصيانة أجهزة ومعدات الإنذار من الحريق
+تركيب انظمة  انذار السرقة
+تركيب وصيانة الأجهزة الأمنية
+تركيب وصيانة أجهزة السلامة المرورية
+أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة
 أعمال السباكة والتدفئة وتكييف الهواء
 تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها
 تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها
@@ -138,6 +272,7 @@
 تمديدات انابيب البخار وصيانتها واصلاحها
 تمديدات انابيب الحريق وصيانتها واصلاحها
 تمديدات انابيب الري وصيانتها واصلاحها
+تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح
 تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها
 تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح
 تركيبات إنشائية أخرى
@@ -158,7 +293,7 @@
 تشطيب المباني
 تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية
 تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم
-تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ  المعدنية
 تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق
 تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب
 تركيب السيراميك والكاشي
@@ -167,149 +302,878 @@
 تركيب القرميد
 أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد
 تغطية الارضيات خشب الباركيه
-تغطية الارضيات</t>
-  </si>
-  <si>
-    <t>موسسه نائف عوض البقمي للمقاولات</t>
-  </si>
-  <si>
-    <t>100007417</t>
-  </si>
-  <si>
-    <t>2019/10/14</t>
-  </si>
-  <si>
-    <t>منشأة صغيرة</t>
-  </si>
-  <si>
-    <t>0 س</t>
-  </si>
-  <si>
-    <t>+966559009214</t>
-  </si>
-  <si>
-    <t>info@shadengulf.com</t>
-  </si>
-  <si>
-    <t>الرياض</t>
-  </si>
-  <si>
-    <t>عنوان
-3423 سيلمان ابن عبدالمالك ابن مروان حي طويق الرياض</t>
-  </si>
-  <si>
-    <t>نحن نعمل لقطاع الاتصالات كشركة مصنعة ومزودة للخدمات الفنية للشركة السعودية للكهرباء وشركات أخر</t>
-  </si>
-  <si>
-    <t>الهندسة المدنية
-تشييد المشاريع الخاصة بالمنافع
-إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار
-أنشطة التشييد المتخصصة
-التركيبات الكهربائية
-تمديد الاسلاك الكهربائية
-تمديد اسلاك الاتصالات
-تمديدات الشبكات
-أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات
-تركيب وتمديد شبكات الكمبيوتر والاتصالات
-أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات
-تركيب انظمة انذار الحريق
-أنشطة أخرى من تركيب انظمة الاضا</t>
-  </si>
-  <si>
-    <t>شركة مدن للمقاولات</t>
-  </si>
-  <si>
-    <t>10000851</t>
-  </si>
-  <si>
-    <t>2018/08/25</t>
-  </si>
-  <si>
-    <t>39 س</t>
-  </si>
-  <si>
-    <t>+966569999996</t>
-  </si>
-  <si>
-    <t>contact@mudungroup.com</t>
-  </si>
-  <si>
-    <t>جدة</t>
-  </si>
-  <si>
-    <t>مكة المكرمة</t>
-  </si>
-  <si>
-    <t>عنوان
-الدور الأول ٧٧٥٥ أحمد العطاس جدة ٢٣٤٢٥ - ٢٧٥٠</t>
-  </si>
-  <si>
-    <t>تسوير مواقع الأعمال الأنشائية , تسوير الأراضي الفضاء</t>
-  </si>
-  <si>
-    <t>الدور الأول
-٧٧٥٥ أحمد العطاس
-جدة ٢٣٤٢٥ - ٢٧٥٠</t>
+تغطية الارضيات بالمطاط والمشمع والبلاستيك
+تغطية ارضيات بانواع اخرى
+أعمال وتركيب الديكورات
+أعمال التزيين ولصق  ورق الحائط
+تركيب الديكورات والتزيين وورق الحائط الأخرى
+أعمال التجصيص والمساح
+أعمال الدهانات والطلاء للمباني الداخلية والخارجية
+أعمال الدهانات والطلاء  لهياكل الهندسة الحديثة
+أنشطة أخرى من أعمال التجصيص والدهانات والطلاء
+تركيب الزجاج والمرايا للمباني
+تركيب زجاج واجهات الابراج
+أنشطة أخرى من تركيب الزجاج والمرايا
+تنظيف المباني الجديدة بعد الإنشاء
+التركيبات الداخلية للمحلات والمباني المتحركة والقوارب
+تركيب الأثاث
+أعمال أخرى لإنهاء المباني وتجهيزها
+أنشطة التشييد المتخصصة الأخرى
+أعمال تركيب الطابوق
+أعمال تركيب الصخور
+أعمال أخرى من أعمال تركيب الطابوق والصخور
+أعمال تركيب السقالات
+إنشاء حمامات السباحة
+تنظيف المباني بالبخار وتسخين الرمل
+تأجير معدات التشييد والبناء مع مشغل
+أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر
+أنشطة تقديم الخدمات للمباني وتجميل المواقع
+أنشطة متكاملة لدعم المرافق
+أنشطة توفير خدمات الحماية للمباني
+أنشطة خدمات التنظيف العام للمباني
+أنشطة خدمات صيانة المباني
+أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق
+أنشطة خدمات التنظيف للمباني الحكومية
+أنشطة خدمات البريد الخاصة بايصال المعاملات
+التنظيف العام للمباني
+التنظيف العام للمباني
+أنشطة تنظيف المباني والتنظيف الصناعي الأخرى
+تنظيف خارجي للمباني
+تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها
+تنظيف وصيانة برك السباحة
+أنشطة التطهير وإبادة الحشرات والقوارض
+أنشطة تنظيف الناقلات
+أنشطة تنظيف الآلات والمعدات الصناعية
+أنشطة تنظيف الطرق
+أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر
+أنشطة التطهير والتبخير لإبادة الحشرات والقوارض</t>
+  </si>
+  <si>
+    <t>مؤسسة نيلوفر هوم للمقاولات العامة</t>
+  </si>
+  <si>
+    <t>138713878</t>
+  </si>
+  <si>
+    <t>aljnshz@gmail.com</t>
   </si>
   <si>
     <t>تشييد المباني
 تشييد المباني
-الإنشاءات العامة للمباني السكنية
-أنشطة التشييد المتخصصة
-التركيبات الكهربائية
-تمديد الاسلاك الكهربائية
-اكمال المباني وتشطيبها
-أعمال وتركيب الديكورات
-تركيب الزجاج والمرايا للمباني
-أنشطة تقديم الخدمات للمباني وتجميل المواقع
-أنشطة متكاملة لدعم المرافق
-أنشطة خدمات صيانة المباني</t>
-  </si>
-  <si>
-    <t>الشركة التضامنية للإعمار والتجارة</t>
-  </si>
-  <si>
-    <t>100003410</t>
-  </si>
-  <si>
-    <t>2018/09/03</t>
+الإنشاءات العامة للمباني السكنية</t>
+  </si>
+  <si>
+    <t>شركة فيصل للأعمال الكهربائية والميكانيكية</t>
+  </si>
+  <si>
+    <t>10001272</t>
   </si>
   <si>
     <t>منشأة كبيرة</t>
   </si>
   <si>
-    <t>+966112812222</t>
-  </si>
-  <si>
-    <t>amobark@tdpco.com</t>
+    <t>10 س</t>
+  </si>
+  <si>
+    <t>+966920023595</t>
+  </si>
+  <si>
+    <t>femco@femco.com.sa</t>
+  </si>
+  <si>
+    <t>الدمام</t>
+  </si>
+  <si>
+    <t>الشرقية</t>
   </si>
   <si>
     <t>عنوان
-الرياض شارع التخصصي عمارة المنجم بجوار البنك العربي</t>
-  </si>
-  <si>
-    <t>الشركة التضامنية للاعمار والتجارة شركة سعودية تأسست عام 1396 هــ الموافق 1976 م وأصبحت واحدة من كبرى الشركات الرائدة فى تنفيذ المشاريع الهامة وانجاز العقود الضخمة. ساهمت الشركة فى خطط التنمية الاقتصادية والعمرانية التى شهدتها المملكة ذلك من خلال  تنفيذها للعديد من المشاريع فى مجال الاعمال الكهربائية و الهاتفية والتى يتطلب انجازها بنجاح توافر مالدى الشركة من موارد فنية ومهنية وامكانيات مادية وخدمات مساندة  متكاملة اكتسبتها من خلال انجازها للعديد من المشاريع التى طرحتها حكومتنا الرشيدة عبر خططها الطموحة . فالشركة بما لديها من كوادر متميزة من المهندسيين والفنيين والاداريين لها دور بارز فى المجالات التالية:
-تجارة المواد الكهربائية المتخصصة بمجالات الضغط العالى والمنخفض.
-تجارة مواد البناء المتخصصة بمجالات تبطين البرك وتقوية التربة .
-هندسة وتنفيذ المشاريع الكهربائية فى قطاعات التوليد ,النقل ,التحويل و التوزيع .
-اعمال الاختبارات والفحص الكهربائية بمجالات الضغط العالى.</t>
+الخير - حي الصفا - طريق الملك سعود - برج فيمكو</t>
+  </si>
+  <si>
+    <t>إن شركة فيصل للأعمال الكهربائية والميكانيكية ذ.م.م (فيمكو)، شركة سعودية مئة بالمئة تأسَّست في سنة 1995 ومسجلة للقيام بأعمال كهربائية وميكانيكية ونشاطات متصلة بإنشاء المباني، منشآت صناعية، محطات التبريد، البنية التحتية ومنشآت أخرى متصلة بذلك في المملكة العربية السعودية. إن مركزها الرئيسي مسجل في الرياض ولـ فيمكو فرع في مدينة الخبر وهو مركز للعمليات / ومكاتب لمواقع المشاريع في كل المملكة . فيمكو، ومع تطورها المستمر ونموها المطّرد منذ تأسيسها ، تُعتبر اليوم كواحدة من أهم الشركات الواعدة في مجال الأعمال الكهربائية – الميكانيكية في المملكة، حيث أنها قد مُنحت عقود لمشاريع مهمة في كل أنحاء المملكة وقد أنجزت تلك المشاريع بنجاح منقطع النظير.</t>
   </si>
   <si>
     <t>تشييد المباني
 تشييد المباني
 الإنشاءات العامة للمباني السكنية
 الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
-الإنشاءات العامة للمباني الغير السكنية المطارات
-الإنشاءات العامة للمباني الغير السكنية الحديدية
+إنشاءات المباني الجاهزة في المواقع
+ترميمات المباني السكنية والغير سكنية
+الهندسة المدنية
+تشييد المشاريع الخاصة بالمنافع
+تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها
+إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه
+إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات
+إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات
+أنشطة التشييد المتخصصة
+الهدم
+هدم وإزالة المباني وغيرها
+أنشطة أخرى من الهدم
+تحضير الموقع
+اعداد وتجهيز المواقع من الحفر والتسوية
+صب القواعد والاساسات
+التركيبات الكهربائية
+تمديد الاسلاك الكهربائية
+تمديد  اسلاك الاتصالات
+تمديدات  الشبكات
+أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات
+أعمال السباكة والتدفئة وتكييف الهواء
+تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها
+تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها
+تمديدات انابيب الري وصيانتها واصلاحها
+تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها
+تركيبات إنشائية أخرى
+تركيب وإصلاح وصيانة مانعه الصواعق
+تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات
+اكمال المباني وتشطيبها
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ  المعدنية
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق
+تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب
+تركيب السيراميك والكاشي
+تركيب الرخام
+تركيب الحجر
+تركيب القرميد
+أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد
+تغطية الارضيات خشب الباركيه
+تغطية الارضيات بالمطاط والمشمع والبلاستيك
+تغطية ارضيات بانواع اخرى
+أعمال وتركيب الديكورات
+أعمال التجصيص والمساح
+أعمال الدهانات والطلاء للمباني الداخلية والخارجية
+أعمال الدهانات والطلاء  لهياكل الهندسة الحديثة
+أنشطة أخرى من أعمال التجصيص والدهانات والطلاء
+تركيب الزجاج والمرايا للمباني
+تركيب زجاج واجهات الابراج
+أنشطة أخرى من تركيب الزجاج والمرايا
+أعمال أخرى لإنهاء المباني وتجهيزها
+أنشطة التشييد المتخصصة الأخرى
+أعمال تركيب الطابوق
+إنشاء حمامات السباحة</t>
+  </si>
+  <si>
+    <t>شركة أركال للمقاولات</t>
+  </si>
+  <si>
+    <t>10001010</t>
+  </si>
+  <si>
+    <t>منشأة متوسطة</t>
+  </si>
+  <si>
+    <t>38 س</t>
+  </si>
+  <si>
+    <t>+966112441584</t>
+  </si>
+  <si>
+    <t>info@arkal-co.com</t>
+  </si>
+  <si>
+    <t>عنوان
+الرياض - حي النور - شارع الحمراء</t>
+  </si>
+  <si>
+    <t>شركة أركال للمقاولات
+الإنشاءات العامه للمباني السكنيه ,أنشطة خدمات صيانة المباني والتنظيف العام للمباني , رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</t>
+  </si>
+  <si>
+    <t>تشييد المباني
+تشييد المباني
+الإنشاءات العامة للمباني السكنية
+الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
+الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
+إنشاءات المباني الجاهزة في المواقع
+ترميمات المباني السكنية والغير سكنية
+أنشطة تقديم الخدمات للمباني وتجميل المواقع
+أنشطة متكاملة لدعم المرافق
+أنشطة خدمات التنظيف العام للمباني
+أنشطة خدمات صيانة المباني
+أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق
+التنظيف العام للمباني
+التنظيف العام للمباني
+أنشطة تنظيف المباني والتنظيف الصناعي الأخرى
+تنظيف خارجي للمباني
+الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع
+رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام
+رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها
+رعاية وصيانة منتزهات الطرق السريعة
+أنشطة خدمات تصميم المناظر الطبيعية</t>
+  </si>
+  <si>
+    <t>شركة اتحاد الهندسة الإنشائية (يونك)</t>
+  </si>
+  <si>
+    <t>200005259</t>
+  </si>
+  <si>
+    <t>مقاول غير سعودي</t>
+  </si>
+  <si>
+    <t>+966114002769</t>
+  </si>
+  <si>
+    <t>asharqi@unec.ae</t>
+  </si>
+  <si>
+    <t>مؤسسة خلف المحيط للمقاولات</t>
+  </si>
+  <si>
+    <t>100007302</t>
+  </si>
+  <si>
+    <t>+966173224303</t>
+  </si>
+  <si>
+    <t>khalfalmoheet@gmail.com</t>
+  </si>
+  <si>
+    <t>فيفاء</t>
+  </si>
+  <si>
+    <t>جازان</t>
+  </si>
+  <si>
+    <t>عنوان
+المملكة العربية السعودية منطقة جازان محافظة فيفاء مؤسسة خلف المحيط للمقاولات</t>
+  </si>
+  <si>
+    <t>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد
+جمع النفايات غير الخطرة
+نقل نفايات البلدية
+تنظيف الشوارع
+خدمات جمع النفايات البلدية
+نقل النفايات الصناعية الغير خطرة
+الهندسة المدنية
+تشييد المشاريع الخاصة بالمنافع
+إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه
+أنشطة التشييد المتخصصة
+تحضير الموقع
+سحب المياه الجوفية وتجفيف المواقع
+أعمال السباكة والتدفئة وتكييف الهواء
+تركيب الادوات الصحية وصيانتها واصلاحها
+تمديدات انابيب الري وصيانتها واصلاحها
+أنشطة تقديم الخدمات للمباني وتجميل المواقع
+الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع
+رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام
+رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها
+رعاية وصيانة منتزهات الطرق السريعة
+رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف
+رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة )
+رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر
+رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق
+أنشطة خدمات تصميم المناظر الطبيعية
+أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</t>
+  </si>
+  <si>
+    <t>شركة سفر للتجارة و المقاولات</t>
+  </si>
+  <si>
+    <t>10001562</t>
+  </si>
+  <si>
+    <t>54 س</t>
+  </si>
+  <si>
+    <t>+966594132685</t>
+  </si>
+  <si>
+    <t>saffar515@yahoo.com</t>
+  </si>
+  <si>
+    <t>مكة المكرمة</t>
+  </si>
+  <si>
+    <t>تشييد المباني
+تشييد المباني
+الإنشاءات العامة للمباني السكنية
+الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
 الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
 إنشاءات المباني الجاهزة في المواقع
 ترميمات المباني السكنية والغير سكنية
 الهندسة المدنية
 إنشاء الطرق وخطوط السكك الحديدية
-إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق
+إنشاء واصلاح الطرق  والشوارع والارصفة ومستلزمات الطرق
+إنشاء واصلاح الجسور والانفاق
+أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى
+إنشاء السدود
+أنشطة التشييد المتخصصة
+الهدم
+أنشطة أخرى من الهدم
+تحضير الموقع
+صب القواعد والاساسات
+سحب المياه الجوفية وتجفيف المواقع
+أنشطة أخرى لتحضير الموقع
+التركيبات الكهربائية
+تمديد الاسلاك الكهربائية
+تمديدات  الشبكات
+التركيبات الكهربائية الأخرى
+أعمال السباكة والتدفئة وتكييف الهواء
+تركيب الادوات الصحية وصيانتها واصلاحها
+تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها
+تركيبات إنشائية أخرى
+تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية
+تركيب وإصلاح وصيانة الابواب الاوتوماتيكية
+تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا
+اكمال المباني وتشطيبها
+تشطيب المباني
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق
+تركيب السيراميك والكاشي
+تركيب الرخام
+تركيب الحجر
+أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد
+تغطية ارضيات بانواع اخرى
+أعمال التجصيص والمساح
+أعمال الدهانات والطلاء للمباني الداخلية والخارجية
+أعمال الدهانات والطلاء  لهياكل الهندسة الحديثة
+أنشطة أخرى من أعمال التجصيص والدهانات والطلاء
+تركيب الزجاج والمرايا للمباني
+أنشطة أخرى من تركيب الزجاج والمرايا
+تنظيف المباني الجديدة بعد الإنشاء
+تركيب الأثاث
+أعمال أخرى لإنهاء المباني وتجهيزها
+أنشطة التشييد المتخصصة الأخرى
+أعمال أخرى من أعمال تركيب الطابوق والصخور
+تأجير معدات التشييد والبناء مع مشغل
+أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر
+أنشطة تقديم الخدمات للمباني وتجميل المواقع
+أنشطة متكاملة لدعم المرافق
+أنشطة توفير خدمات الحماية للمباني
+أنشطة خدمات التنظيف العام للمباني
+أنشطة خدمات صيانة المباني
+أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق
+التنظيف العام للمباني
+التنظيف العام للمباني
+أنشطة تنظيف المباني والتنظيف الصناعي الأخرى
+تنظيف خارجي للمباني
+تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها
+تنظيف وصيانة برك السباحة
+أنشطة تنظيف الناقلات
+أنشطة تنظيف الآلات والمعدات الصناعية
+أنشطة تنظيف الطرق
+أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر
+الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع
+رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام
+رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</t>
+  </si>
+  <si>
+    <t>مؤسسة جبال بيشة للمقاولات العامة</t>
+  </si>
+  <si>
+    <t>10002386</t>
+  </si>
+  <si>
+    <t>abok1402@hotmail.com</t>
+  </si>
+  <si>
+    <t>عنوان
+جازان الخوبه الشارع العام</t>
+  </si>
+  <si>
+    <t>مؤسسه متخصصه في المقاولات والمباني وصيناتها واعمال الطرق وصيانتها واعمال المياه والصرف الصحي وتشجير الحدائق والمنتزهات وصيناتها ونظافه المدن والتخلص من النفايات والاعمال الكهربائيه والميكانيكيه وتوريد جميع انواع التوريدات ولدينا تنفيذ المشاريع الحكوميه مع البلديات والتعليم</t>
+  </si>
+  <si>
+    <t>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد
+جمع النفايات غير الخطرة
+تنظيف الشوارع
+تشييد المباني
+تشييد المباني
+الإنشاءات العامة للمباني السكنية
+الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
+الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
+إنشاءات المباني الجاهزة في المواقع
+ترميمات المباني السكنية والغير سكنية
+الهندسة المدنية
+إنشاء الطرق وخطوط السكك الحديدية
+إنشاء واصلاح الطرق  والشوارع والارصفة ومستلزمات الطرق
+تشييد المشاريع الخاصة بالمنافع
+إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه
+إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات
+أنشطة التشييد المتخصصة
+التركيبات الكهربائية
+تمديد الاسلاك الكهربائية
+التركيبات الكهربائية الأخرى
+أعمال السباكة والتدفئة وتكييف الهواء
+تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها
+تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها
+تركيب الادوات الصحية وصيانتها واصلاحها
+تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها
+تمديدات انابيب الغاز وصيانتها واصلاحها
+تمديدات انابيب البخار وصيانتها واصلاحها
+تمديدات انابيب الحريق وصيانتها واصلاحها
+تمديدات انابيب الري وصيانتها واصلاحها
+تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح
+تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها
+تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح
+أنشطة تقديم الخدمات للمباني وتجميل المواقع
+أنشطة متكاملة لدعم المرافق
+أنشطة خدمات صيانة المباني
+الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع
+رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</t>
+  </si>
+  <si>
+    <t>شركة هادي حيدر اليامي للمقاولات العامة والتجارة</t>
+  </si>
+  <si>
+    <t>10003081</t>
+  </si>
+  <si>
+    <t>+966136680002</t>
+  </si>
+  <si>
+    <t>info@hadihaider.com</t>
+  </si>
+  <si>
+    <t>راس تنورة</t>
+  </si>
+  <si>
+    <t>عنوان
+ص ب 118 رحيمة 31941 المملكة العربية السعودية</t>
+  </si>
+  <si>
+    <t>2698 شارع الملك سلمان بن عبدالعزيز حي الفيحاء رقم الوحدة 2699 راس تنورة 32817 7471</t>
+  </si>
+  <si>
+    <t>تشييد المباني
+تشييد المباني
+الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
+إنشاءات المباني الجاهزة في المواقع
+الهندسة المدنية
+تشييد المشاريع الخاصة بالمنافع
+تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها
+إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات
+أنشطة التشييد المتخصصة
+التركيبات الكهربائية
+تمديد الاسلاك الكهربائية
+تمديد  اسلاك الاتصالات
+تمديدات  الشبكات
+أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات
+التركيبات الكهربائية الأخرى
+اكمال المباني وتشطيبها
+تشطيب المباني</t>
+  </si>
+  <si>
+    <t>شركة تراث المشرق للمقاولات</t>
+  </si>
+  <si>
+    <t>1000020000104</t>
+  </si>
+  <si>
+    <t>turath.almashrq@gmail.com</t>
+  </si>
+  <si>
+    <t>عنوان
+المقر الرئيسي , طريق الملك سعود حي المربع مقبابل شركة الكهرباء شركة المياه سابقاً</t>
+  </si>
+  <si>
+    <t>تشييد المباني
+تشييد المباني
+الإنشاءات العامة للمباني السكنية
+الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
+الإنشاءات العامة للمباني الغير السكنية  المطارات
+الإنشاءات العامة للمباني الغير السكنية  الحديدية
+الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
+إنشاءات المباني الجاهزة في المواقع
+ترميمات المباني السكنية والغير سكنية
+أنشطة التشييد المتخصصة
+اكمال المباني وتشطيبها
+تشطيب المباني</t>
+  </si>
+  <si>
+    <t>شركة سيكلي السعودية</t>
+  </si>
+  <si>
+    <t>10001887</t>
+  </si>
+  <si>
+    <t>+966126355252</t>
+  </si>
+  <si>
+    <t>ahmad@saudisicli.com.sa</t>
+  </si>
+  <si>
+    <t>جدة</t>
+  </si>
+  <si>
+    <t>عنوان
+8683 المنطقة الصناعية جدة 4215 22426 المملكة العربية السعودية</t>
+  </si>
+  <si>
+    <t>مراكز الخدمة , المطاعم و المطابخ , تسوير مواقع الأعمال الأنشائية , تسوير الأراضي الفضاء , المستودعات والورش والمخازن , المباني المهنية , البقالات و التموينات و الأسواق المركزية , الرخص الانشائية</t>
+  </si>
+  <si>
+    <t>تأسست في عام 1979 كأول شركة لتصنيع معدات مكافحة الحرائق في المنطقة، شركة سيكلي السعودية تفخر بالعلاقات والخدمات والمنتجات التي طورتها على مدى أكثر من 39 عاما من الخدمة في المملكة العربية السعودية. قمنا ببناء علاقات متينة وقوية مع كبار مصنعين ومقدمي خدمات السلامة والأمن ومكافحة الحرائق والإنذار من الحريق في العالم لتقديم منتجات موثوقة وخدمات وعروض تنافسية. طوال كل هذه السنوات، لقد تم التركيز على تطوير القدرات البشرية حيث لدينا إدارة متخصصة وموظفين من المهندسين والفنيين المتخصصين يسعون جاهدين لتقديم خدمات متميزة لتلبية الاحتياجات المختلفة للعملاء لدينا بمنتهى التفاني. اليوم، نحن متخصصون في: • تصنيع معدات الوقاية من الحريق • تشغيل وصيانة خدمات ومعدات الإطفاء والإنقاذ • تجارة ومقاولات معدات وأنظمة الحماية من الحريق • تقديم معدات وخدمات الأنظمة والحراسات الأمنية • أنظمة إدارة المباني</t>
+  </si>
+  <si>
+    <t>أنشطة التشييد المتخصصة
+التركيبات الكهربائية
+تركيب انظمة  انذار الحريق
+أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة
+أعمال السباكة والتدفئة وتكييف الهواء
+تمديدات انابيب الحريق وصيانتها واصلاحها
+تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح</t>
+  </si>
+  <si>
+    <t>شركة اي تي اي ايه انترناشيونال ليمتد</t>
+  </si>
+  <si>
+    <t>20001370</t>
+  </si>
+  <si>
+    <t>elando@iteaint.com</t>
+  </si>
+  <si>
+    <t>عنوان
+رقم المبنى 7252 الرمز البريدي 13325 الرقم الاضافي 2573</t>
+  </si>
+  <si>
+    <t>7525 العليا- الياسمين
+رقم الوحدة : 555
+الرياض 2573-13325</t>
+  </si>
+  <si>
+    <t>تشييد المباني
+تشييد المباني
+الإنشاءات العامة للمباني السكنية
+الإنشاءات العامة للمباني الغير السكنية  المطارات
+الهندسة المدنية
+تشييد المشاريع الخاصة بالمنافع
+تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها
+إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه
+إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار
+أنشطة التشييد المتخصصة
+التركيبات الكهربائية
+تمديد الاسلاك الكهربائية
+تمديد  اسلاك الاتصالات
+تمديدات  الشبكات
+أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات
+أعمال السباكة والتدفئة وتكييف الهواء
+تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها
+تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها</t>
+  </si>
+  <si>
+    <t>شركة أفكار عصرية للتطوير والاستثمار العقاري</t>
+  </si>
+  <si>
+    <t>491549152</t>
+  </si>
+  <si>
+    <t>faihan10@hotmail.com</t>
+  </si>
+  <si>
+    <t>شركة العروبة العالمية الزراعية شركة شخص واحد</t>
+  </si>
+  <si>
+    <t>573157310</t>
+  </si>
+  <si>
+    <t>aloroubainternational@gmail.com</t>
+  </si>
+  <si>
+    <t>مؤسسة الميدة التقنية للمقاولات عامة</t>
+  </si>
+  <si>
+    <t>423642361</t>
+  </si>
+  <si>
+    <t>+966556556517</t>
+  </si>
+  <si>
+    <t>maidaar77@gmail.com</t>
+  </si>
+  <si>
+    <t>مراكز الخدمة</t>
+  </si>
+  <si>
+    <t>العنوان المختصر JIJB2202</t>
+  </si>
+  <si>
+    <t>تشييد المباني
+تشييد المباني
+الإنشاءات العامة للمباني السكنية
+الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
+الإنشاءات العامة للمباني الغير السكنية  المطارات
+الإنشاءات العامة للمباني الغير السكنية  الحديدية
+الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
+إنشاءات المباني الجاهزة في المواقع
+ترميمات المباني السكنية والغير سكنية
+أنشطة التشييد المتخصصة
+الهدم
+هدم وإزالة المباني وغيرها
+اكمال المباني وتشطيبها
+تشطيب المباني
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ  المعدنية
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق
+تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب
+تركيب السيراميك والكاشي
+تركيب الرخام
+تركيب الحجر
+تركيب القرميد
+أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد
+تغطية الارضيات خشب الباركيه
+تغطية الارضيات بالمطاط والمشمع والبلاستيك
+تغطية ارضيات بانواع اخرى
+أعمال وتركيب الديكورات
+أعمال التزيين ولصق  ورق الحائط
+تركيب الديكورات والتزيين وورق الحائط الأخرى
+أعمال التجصيص والمساح
+أعمال الدهانات والطلاء للمباني الداخلية والخارجية
+أعمال الدهانات والطلاء  لهياكل الهندسة الحديثة
+أنشطة أخرى من أعمال التجصيص والدهانات والطلاء
+تركيب الزجاج والمرايا للمباني
+تركيب زجاج واجهات الابراج
+أنشطة أخرى من تركيب الزجاج والمرايا
+تنظيف المباني الجديدة بعد الإنشاء
+التركيبات الداخلية للمحلات والمباني المتحركة والقوارب
+تركيب الأثاث
+أعمال أخرى لإنهاء المباني وتجهيزها
+أنشطة التشييد المتخصصة الأخرى
+أعمال تركيب الطابوق
+أعمال تركيب الصخور
+أعمال أخرى من أعمال تركيب الطابوق والصخور
+أعمال تركيب السقالات
+إنشاء حمامات السباحة
+تنظيف المباني بالبخار وتسخين الرمل
+تأجير معدات التشييد والبناء مع مشغل
+أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر
+أنشطة تقديم الخدمات للمباني وتجميل المواقع
+أنشطة متكاملة لدعم المرافق
+أنشطة توفير خدمات الحماية للمباني
+أنشطة خدمات التنظيف العام للمباني
+أنشطة خدمات صيانة المباني
+أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق
+أنشطة خدمات التنظيف للمباني الحكومية
+أنشطة خدمات البريد الخاصة بايصال المعاملات
+التنظيف العام للمباني
+التنظيف العام للمباني
+أنشطة تنظيف المباني والتنظيف الصناعي الأخرى
+تنظيف خارجي للمباني
+تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها
+تنظيف وصيانة برك السباحة
+أنشطة التطهير وإبادة الحشرات والقوارض
+أنشطة تنظيف الناقلات
+أنشطة تنظيف الآلات والمعدات الصناعية
+أنشطة تنظيف الطرق
+أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر
+أنشطة التطهير والتبخير لإبادة الحشرات والقوارض
+الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع
+رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام
+رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها
+رعاية وصيانة منتزهات الطرق السريعة
+رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف
+رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة )
+رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر
+رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق
+أنشطة خدمات تصميم المناظر الطبيعية
+أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</t>
+  </si>
+  <si>
+    <t>مؤسسة بروج السكن للتطوير العقاري</t>
+  </si>
+  <si>
+    <t>606460642</t>
+  </si>
+  <si>
+    <t>abo_hams@outlook.com</t>
+  </si>
+  <si>
+    <t>مؤسسة غراس المستقبل للمقاولات العامة</t>
+  </si>
+  <si>
+    <t>628062804</t>
+  </si>
+  <si>
+    <t>+966530301218</t>
+  </si>
+  <si>
+    <t>grasfuture2@gmail.com</t>
+  </si>
+  <si>
+    <t>عنوان
+شارع الحارث بن النعمان - جدة - المملكة العربية السعودية</t>
+  </si>
+  <si>
+    <t>مؤسسة غراس المستقبل للمقاولات
+نعمل على  تحسين وتجميل المساحات الخارجية، بإضافة أو تغيير أو ترتيب العناصر الطبيعية أو الصناعية، مثل النباتات والأشجار والزهور والأعشاب والصخور والماء والإضاءة والديكورات. الهدف منها هو إنشاء بيئة جذابة ووظيفية ومستدامة، تناسب ذوق واحتياجات وميزانية العميل.
+شعارنا
+الإبداع والإبتكار في أعمال التخطيط العام والتفصيلي وأعمال تنسيق الموقع العام والتصميم المعماري للمباني والمنتجعات والحدائق
+هدفنا
+تحسين وتجميل المساحات الداخلية والخارجية، بإضافة أو تغيير أو ترتيب العناصر الطبيعية أو الصناعية، مثل النباتات والأشجار والزهور والأعشاب والصخور والماء والإضاءة والديكورات. الهدف منها إنشاء بيئة جذابة ووظيفية ومستدامة، تناسب ذوق واحتياجات وميز</t>
+  </si>
+  <si>
+    <t>تشييد المباني
+تشييد المباني
+الإنشاءات العامة للمباني السكنية
+الإنشاءات العامة للمباني الغير السكنية  المطارات
+الإنشاءات العامة للمباني الغير السكنية  الحديدية
+إنشاءات المباني الجاهزة في المواقع
+ترميمات المباني السكنية والغير سكنية
+الهندسة المدنية
+إنشاء الطرق وخطوط السكك الحديدية
+إنشاء واصلاح الطرق  والشوارع والارصفة ومستلزمات الطرق
+إنشاء واصلاح الجسور والانفاق
+إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق
+تشييد المشاريع الخاصة بالمنافع
+تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها
+إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات
+أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى
+إنشاء السدود
+تنظيف الممرات المائية
+أنشطة التشييد المتخصصة
+الهدم
+هدم وإزالة المباني وغيرها
+تحضير الموقع
+اعداد وتجهيز المواقع من الحفر والتسوية
+صب القواعد والاساسات
+سحب المياه الجوفية وتجفيف المواقع
+التركيبات الكهربائية
+تمديد الاسلاك الكهربائية
+تمديد  اسلاك الاتصالات
+تمديدات  الشبكات
+تركيب انظمة الاضاءة
+أعمال السباكة والتدفئة وتكييف الهواء
+تركيب الادوات الصحية وصيانتها واصلاحها
+تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها
+تمديدات انابيب الغاز وصيانتها واصلاحها
+تمديدات انابيب البخار وصيانتها واصلاحها
+تمديدات انابيب الحريق وصيانتها واصلاحها
+تمديدات انابيب الري وصيانتها واصلاحها
+تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها
+تركيبات إنشائية أخرى
+تركيب وإصلاح وصيانة الابواب الاوتوماتيكية
+تركيب وإصلاح وصيانة انظمة التنظيف المركزية
+تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات
+اكمال المباني وتشطيبها
+تشطيب المباني
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ  المعدنية
+تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب
+تركيب السيراميك والكاشي
+تركيب الرخام
+تركيب الحجر
+تركيب القرميد
+تغطية الارضيات خشب الباركيه
+تغطية الارضيات بالمطاط والمشمع والبلاستيك
+أعمال التزيين ولصق  ورق الحائط
+أعمال التجصيص والمساح
+أعمال الدهانات والطلاء للمباني الداخلية والخارجية
+أعمال الدهانات والطلاء  لهياكل الهندسة الحديثة
+تركيب الزجاج والمرايا للمباني
+تركيب زجاج واجهات الابراج
+تنظيف المباني الجديدة بعد الإنشاء
+أنشطة التشييد المتخصصة الأخرى
+أعمال تركيب الطابوق
+أعمال تركيب الصخور
+أعمال تركيب السقالات
+إنشاء حمامات السباحة
+تنظيف المباني بالبخار وتسخين الرمل
+تأجير معدات التشييد والبناء مع مشغل</t>
+  </si>
+  <si>
+    <t>مؤسسة حنان عبدالعزيز بن احمد سهلي للمقاولات</t>
+  </si>
+  <si>
+    <t>587858784</t>
+  </si>
+  <si>
+    <t>hma37763@gmail.com</t>
+  </si>
+  <si>
+    <t>شركة صناع الخليج للمقاولات</t>
+  </si>
+  <si>
+    <t>332633267</t>
+  </si>
+  <si>
+    <t>eng.wesam@gulfmakers.sa</t>
+  </si>
+  <si>
+    <t>الخبر</t>
+  </si>
+  <si>
+    <t>تشييد المباني
+تشييد المباني
+ترميمات المباني السكنية والغير سكنية
+أنشطة التشييد المتخصصة
+الهدم
+هدم وإزالة المباني وغيرها
+أنشطة أخرى من الهدم
+اكمال المباني وتشطيبها
+تشطيب المباني
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم
+تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب
+تركيب السيراميك والكاشي
+تركيب الرخام
+تركيب الأثاث
+أعمال أخرى لإنهاء المباني وتجهيزها</t>
+  </si>
+  <si>
+    <t>مؤسسة اعمار التشييد المتميز للمقاولات العامة</t>
+  </si>
+  <si>
+    <t>480148018</t>
+  </si>
+  <si>
+    <t>estreancostgrop.mhd@gmail.com</t>
+  </si>
+  <si>
+    <t>مؤسسة مفرج طرجم مفرج السهلي للمقاولات العامة</t>
+  </si>
+  <si>
+    <t>464946493</t>
+  </si>
+  <si>
+    <t>alsahliicontracting@gmail.com</t>
+  </si>
+  <si>
+    <t>مراكز الخدمة , المباني المهنية</t>
+  </si>
+  <si>
+    <t>مؤسسة الدر النفيس للمقاولات العامة</t>
+  </si>
+  <si>
+    <t>602860283</t>
+  </si>
+  <si>
+    <t>+966502433339</t>
+  </si>
+  <si>
+    <t>alhamly79@gmail.com</t>
+  </si>
+  <si>
+    <t>المجمعة</t>
+  </si>
+  <si>
+    <t>مؤسسة يحي عبدالله المكرمي للمقاولات</t>
+  </si>
+  <si>
+    <t>425042501</t>
+  </si>
+  <si>
+    <t>yahyamak25@gmail.com</t>
+  </si>
+  <si>
+    <t>تشييد المباني
+تشييد المباني
+الإنشاءات العامة للمباني السكنية
+الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
+الإنشاءات العامة للمباني الغير السكنية  المطارات
+الإنشاءات العامة للمباني الغير السكنية  الحديدية
+الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
+إنشاءات المباني الجاهزة في المواقع
+ترميمات المباني السكنية والغير سكنية
+الهندسة المدنية
+إنشاء الطرق وخطوط السكك الحديدية
+إنشاء واصلاح الطرق  والشوارع والارصفة ومستلزمات الطرق
 إنشاء واصلاح الجسور والانفاق
 إنشاء واصلاح خطوط السكك الحديدية
-أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر
+أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها  لم ترد في مكان آخر
 إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق
 إصلاح وصيانة الجسور والأنفاق
 إصلاح وصيانة خطوط السكك الحديدية
@@ -349,21 +1213,21 @@
 أنشطة أخرى لتحضير الموقع
 التركيبات الكهربائية
 تمديد الاسلاك الكهربائية
-تمديد اسلاك الاتصالات
-تمديدات الشبكات
+تمديد  اسلاك الاتصالات
+تمديدات  الشبكات
 أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات
 تركيب وتمديد شبكات التلفزيون والستلايت
 تركيب وتمديد شبكات الكمبيوتر والاتصالات
 أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات
 تركيب انظمة الاضاءة
-تركيب انظمة انذار الحريق
-تركيب انظمة انذار السرقة
+تركيب انظمة  انذار الحريق
+تركيب انظمة  انذار السرقة
 أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة
 تركيب انظمة اضاءة الطرق ومهابط الطائرات
 تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين
 التركيبات الكهربائية الأخرى
 تركيب وصيانة أجهزة ومعدات الإنذار من الحريق
-تركيب انظمة انذار السرقة
+تركيب انظمة  انذار السرقة
 تركيب وصيانة الأجهزة الأمنية
 تركيب وصيانة أجهزة السلامة المرورية
 أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة
@@ -397,7 +1261,7 @@
 تشطيب المباني
 تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية
 تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم
-تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية
+تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ  المعدنية
 تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق
 تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب
 تركيب السيراميك والكاشي
@@ -409,11 +1273,11 @@
 تغطية الارضيات بالمطاط والمشمع والبلاستيك
 تغطية ارضيات بانواع اخرى
 أعمال وتركيب الديكورات
-أعمال التزيين ولصق ورق الحائط
+أعمال التزيين ولصق  ورق الحائط
 تركيب الديكورات والتزيين وورق الحائط الأخرى
 أعمال التجصيص والمساح
 أعمال الدهانات والطلاء للمباني الداخلية والخارجية
-أعمال الدهانات والطلاء لهياكل الهندسة الحديثة
+أعمال الدهانات والطلاء  لهياكل الهندسة الحديثة
 أنشطة أخرى من أعمال التجصيص والدهانات والطلاء
 تركيب الزجاج والمرايا للمباني
 تركيب زجاج واجهات الابراج
@@ -430,710 +1294,114 @@
 إنشاء حمامات السباحة
 تنظيف المباني بالبخار وتسخين الرمل
 تأجير معدات التشييد والبناء مع مشغل
-أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر</t>
-  </si>
-  <si>
-    <t>مجموعة الأعمال المتعددة للمشاريع</t>
-  </si>
-  <si>
-    <t>10000792</t>
-  </si>
-  <si>
-    <t>منشأة متوسطة</t>
-  </si>
-  <si>
-    <t>470 س</t>
-  </si>
-  <si>
-    <t>+966920013202</t>
-  </si>
-  <si>
-    <t>info@mbg.sa</t>
+أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر
+أنشطة تقديم الخدمات للمباني وتجميل المواقع
+أنشطة متكاملة لدعم المرافق
+أنشطة توفير خدمات الحماية للمباني
+أنشطة خدمات التنظيف العام للمباني
+أنشطة خدمات صيانة المباني
+أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق
+أنشطة خدمات التنظيف للمباني الحكومية
+أنشطة خدمات البريد الخاصة بايصال المعاملات
+التنظيف العام للمباني
+التنظيف العام للمباني
+أنشطة تنظيف المباني والتنظيف الصناعي الأخرى
+تنظيف خارجي للمباني
+تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها
+تنظيف وصيانة برك السباحة
+أنشطة التطهير وإبادة الحشرات والقوارض
+أنشطة تنظيف الناقلات
+أنشطة تنظيف الآلات والمعدات الصناعية
+أنشطة تنظيف الطرق
+أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر
+أنشطة التطهير والتبخير لإبادة الحشرات والقوارض
+الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع
+رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام
+رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها
+رعاية وصيانة منتزهات الطرق السريعة
+رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف
+رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة )
+رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر
+رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق
+أنشطة خدمات تصميم المناظر الطبيعية
+أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</t>
+  </si>
+  <si>
+    <t>الحفدة – للمقاولات العامة HGC</t>
+  </si>
+  <si>
+    <t>464546455</t>
+  </si>
+  <si>
+    <t>info@alhafda.com</t>
+  </si>
+  <si>
+    <t>مؤسسة كيان الهندسة للمقاولات</t>
+  </si>
+  <si>
+    <t>479147918</t>
+  </si>
+  <si>
+    <t>+966570272009</t>
+  </si>
+  <si>
+    <t>kayanalhandasa@outlook.com</t>
   </si>
   <si>
     <t>عنوان
-4556 طريق أنس بن مالك | حي النرجس الوحدة رقم 2 | الرياض 13327 - 6828</t>
-  </si>
-  <si>
-    <t>تأسست مجموعة الآعمال المتعددة في عام 2009م بهدف ﺗﻘﺪﻳﻢ ﺧﺪﻣﺎت ﻣﻘﺎوﻻت المباني ، ﺣﻴﺚ ﺗﺮﺟﻤﺖ المجموعة ﻧﺠﺎﺣﺎتها خلال العقد الماضي من ﺧﻼل ﺗﺼنيفها ﻟﺪى وكالة تصنيف المقاولين التابعة ﻟوزارة الشؤون البلدية والقروية في ﻣﺠﺎل المباني عام 2016م وحصولها على العضوية اﻷﺳﺎﺳﻴﺔ في البيئة اﻟﺴﻌﻮدﻳﺔ ﻟﻠﻤﻘﺎولين وأخيرا تأهيلها ﻛﻤﻄﻮر ﻋﻘﺎري في ﺑﺮﻧﺎﻣﺞ اﻟﺒﻴﻊ على الخارطة (وافي ) التابع لوزارة الاسكان</t>
-  </si>
-  <si>
-    <t>تشييد المباني
-تشييد المباني
-الإنش</t>
-  </si>
-  <si>
-    <t>شركة رونق الاعمار للمقاولات</t>
-  </si>
-  <si>
-    <t>100005891</t>
-  </si>
-  <si>
-    <t>2019/05/08</t>
-  </si>
-  <si>
-    <t>46 س</t>
-  </si>
-  <si>
-    <t>+966173250041</t>
-  </si>
-  <si>
-    <t>a7med.alajami@gmail.com</t>
-  </si>
-  <si>
-    <t>ابو عريش</t>
-  </si>
-  <si>
-    <t>جازان</t>
-  </si>
-  <si>
-    <t>عنوان
-منطقة جازان محافظة ابوعريش حي الصفا مقابل الجمعية الخيرية لتحفيظ القران الكريم</t>
-  </si>
-  <si>
-    <t>مراكز الخدمة , تسوير مواقع الأعمال الأنشائية , تسوير الأراضي الفضاء , المستودعات والورش والمخازن , المباني المهنية , البقالات و التموينات و الأسواق المركزية , الرخص الانشائية , المطاعم و المطابخ</t>
-  </si>
-  <si>
-    <t>مؤسسة مساوي معبر معشي للمقاولات العامة مؤسسة وطنية تعمل في مجال المقاولات العامة من اصلاح وهدم وترميم وصيانة المباني العامة و التجارية والسكنية والحكومية وانشاء الحدائق والمتنزهات وصيانتها</t>
+الرياض - حي الملز - شارع الشيخ سلمان بن حمد ال خليفة</t>
+  </si>
+  <si>
+    <t>بجوار مؤسسة خالد عبدالله العبدالكريم للتجارة</t>
+  </si>
+  <si>
+    <t>فرع شركة مابا انسات في تيكارت انونيم سيركتي</t>
+  </si>
+  <si>
+    <t>20001457</t>
+  </si>
+  <si>
+    <t>abdulwahedaleidan@mng.com.tr</t>
   </si>
   <si>
     <t>تشييد المباني
 تشييد المباني
 الإنشاءات العامة للمباني السكنية
-الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
-الإنشاءات العامة للمباني الغير السكنية المطارات
-الإنشاءات العامة للمباني الغير السكنية الحديدية
-الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
-إنشاءات المباني الجاهزة في المواقع
-ترميمات المباني السكنية والغير سكنية
+الإنشاءات العامة للمباني الغير السكنية  المطارات
+الإنشاءات العامة للمباني الغير السكنية  الحديدية
 الهندسة المدنية
 إنشاء الطرق وخطوط السكك الحديدية
-إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق
-إنشاء واصلاح الجسور والانفاق
+إنشاء واصلاح الطرق  والشوارع والارصفة ومستلزمات الطرق
 إنشاء واصلاح خطوط السكك الحديدية
-أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر
-إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق
-إصلاح</t>
-  </si>
-  <si>
-    <t>ام اتش اي ايه بي العربية السعودية المحدودة</t>
-  </si>
-  <si>
-    <t>100005345</t>
-  </si>
-  <si>
-    <t>مقاول غير سعودي</t>
-  </si>
-  <si>
-    <t>2019/03/14</t>
-  </si>
-  <si>
-    <t>+966133581112</t>
-  </si>
-  <si>
-    <t>ali.almabooq.ns@mhi.com</t>
-  </si>
-  <si>
-    <t>الجبيل</t>
-  </si>
-  <si>
-    <t>أنشطة خدمات دعم التعدين
-أنشطة الدعم لاستخراج النفط والغاز الطبيعي
-حفر آبار النفط
-حفر آبار الغاز الطبيعي
-الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح
-الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح
-أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي
-تشييد المباني
-تشييد المباني
-الإنشاءات العامة للمباني السكنية
-الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
-الإنشاءات العامة للمباني الغير السكنية المطارات
-الإنشاءات العامة للمباني الغير السكنية الحديدية
-الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
-إنشاءات المباني الجاهزة في المواقع
-ترميمات المباني السكنية والغير سكنية
-الهندسة المدنية
 تشييد المشاريع الخاصة بالمنافع
-تمديد انابيب النفط والغاز
+إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه
+إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات
 أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى
-إنشاء محطات التكرير والبتروكيماويات والمصافي</t>
-  </si>
-  <si>
-    <t>شركة اتحاد المقاولون الماسية للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>10001111</t>
-  </si>
-  <si>
-    <t>+966122502860</t>
-  </si>
-  <si>
-    <t>admin@udc-sa.com</t>
-  </si>
-  <si>
-    <t>عنوان
-7827 عرفان الجميل - الفيصلية السريع بلازا - الدور الخامس - مكتب 20</t>
-  </si>
-  <si>
-    <t>7827 عرفان الجميل - الفيصلية
-السريع بلازا - الدور الخامس - مكتب 20</t>
-  </si>
-  <si>
-    <t>تشييد المباني
-تشييد المباني
-الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
-الهندسة المدنية
-إنشاء الطرق وخطوط السكك الحديدية
-إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق
-أنشطة التشييد المتخصصة
-التركيبات الكهربائية
-تمديد اسلاك الاتصالات
-أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات
-تركيب وتمديد شبكات الكمبيوتر والاتصالات
-أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات
-أعمال السباكة والتدفئة وتكييف الهواء
-تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها
-أنشطة التشييد المتخصصة الأخرى
-أعمال تركيب السقالات
-أنشطة تقديم الخدمات للمباني وتجميل المواقع
-أنشطة متكاملة لدعم المرافق
-أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق</t>
-  </si>
-  <si>
-    <t>شركة بيت الجليد للصيانة والتشغيل</t>
-  </si>
-  <si>
-    <t>100006826</t>
-  </si>
-  <si>
-    <t>2019/08/20</t>
-  </si>
-  <si>
-    <t>+966920001721</t>
-  </si>
-  <si>
-    <t>alkhadhar.a@gmail.com</t>
-  </si>
-  <si>
-    <t>عنوان
-طريق الامام سعود بن عبدالعزيز</t>
-  </si>
-  <si>
-    <t>شركة القصيبي للخدمات المحدودة</t>
-  </si>
-  <si>
-    <t>100005370</t>
-  </si>
-  <si>
-    <t>+966138472444</t>
-  </si>
-  <si>
-    <t>khalid.alabdulaziz@algosaibi.com.sa</t>
-  </si>
-  <si>
-    <t>الدمام</t>
-  </si>
-  <si>
-    <t>عنوان
-الدمام / شارع الخبر ص.ب: 4131 الرمز البريدي: 31491</t>
-  </si>
-  <si>
-    <t>أنشطة التشييد المتخصصة
-اكمال المباني وتشطيبها
-تنظيف المباني الجديدة بعد الإنشاء
-أنشطة تقديم الخدمات للمباني وتجميل المواقع
-أنشطة متكاملة لدعم المرافق
-أنشطة خدمات التنظيف العام للمباني
-أنشطة خدمات التنظيف للمباني الحكومية
-التنظيف العام للمباني
-التنظيف العام للمباني
-أنشطة تنظيف المباني والتنظيف الصناعي الأخرى
-أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر</t>
-  </si>
-  <si>
-    <t>مؤسسة امجد عبدالواحد محمد ال السادة للمقاولات</t>
-  </si>
-  <si>
-    <t>100006449</t>
-  </si>
-  <si>
-    <t>2019/07/04</t>
-  </si>
-  <si>
-    <t>amjad007.com@gmail.com</t>
-  </si>
-  <si>
-    <t>محايل</t>
-  </si>
-  <si>
-    <t>عسير</t>
-  </si>
-  <si>
-    <t>تشييد المباني
-تشييد المباني
-الإنشاءات العامة للمباني السكنية
-الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
-الإنشاءات العامة للمباني الغير السكنية المطارات
-ترميمات المباني السكنية والغير سكنية
-الهندسة المدنية
-تشييد المشاريع الخاصة بالمنافع
-تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها
+إنشاء السدود
 أنشطة التشييد المتخصصة
 التركيبات الكهربائية
 تمديد الاسلاك الكهربائية
-تمديد اسلاك الاتصالات
-تمديدات الشبكات
-أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات
-أعمال السباكة والتدفئة وتكييف الهواء
-تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها</t>
-  </si>
-  <si>
-    <t>شركة برو فاست المحدودة</t>
-  </si>
-  <si>
-    <t>20003219</t>
-  </si>
-  <si>
-    <t>+966114914810</t>
-  </si>
-  <si>
-    <t>info@alaaalafaq.com</t>
-  </si>
-  <si>
-    <t>عنوان
-مبنى رقم 3147 شارع عبدال رحمن الغافقي حي الروضة مدينة الرياض وحدة رقم 2</t>
-  </si>
-  <si>
-    <t>تعتبر شركة آلاء الآفاق للمقاولات إحدى الشركات الرائدة في مجالات المقاولات المختلفة ، حيث يشمل نشاطها مجالات الإنشاءات والصيانة والتشغيل والأعمال الكهربائية والميكانيكية . وقد نفذت الشركة العديد من العقود الحكومية وغير الحكومية وعقود التشغيل والصيانة وذلك بمواصفات فنية عالية وبأسلوب جديد ومبتكر يلبي كافة الاحتياجات.</t>
-  </si>
-  <si>
-    <t>تشييد المباني
-تشييد المباني
-الإنشاءات العامة للمباني السكنية
-الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
-الإنشاءات العامة للمباني الغير السكنية المطارات
-الإنشاءات العامة للمباني الغير السكنية الحديدية
-الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
-إنشاءات المباني الجاهزة في المواقع
-ترميمات المباني السكنية والغير سكنية
-الهندسة المدنية
-إنشاء الطرق وخطوط السكك الحديدية
-إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق
-إنشاء واصلاح الجسور والانفاق
-إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق
-إصلاح وصيانة الجسور والأنفاق
-تشييد المشاريع الخاصة بالمنافع
-إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات
-إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات
-إصلاح وصيانة محطات الطاقة الكهربائية والمحولات
-أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى
-إنشاء السدود
-إصلاح وصيانة السدود
-أنشطة التشييد المتخصصة
-الهدم
-هدم وإزالة المباني وغيرها
-أنشطة أخرى من الهدم
-تحضير الموقع
-اعداد وتجهيز المواقع من الحفر والتسوية
-صب القواعد والاساسات
-سحب المياه الجوفية وتجفيف المواقع
-التفجير والنسف
-أنشطة أخرى لتحضير الموقع
-التركيبات الكهربائية
-تمديد الاسلاك الكهربائية
-تمديد اسلاك الاتصالات
-تمديدات الشبكات
-أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات
-تركيب وتمديد شبكات التلفزيون والستلايت
-تركيب وتمديد شبكات الكمبيوتر والاتصالات
-أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات
-تركيب انظمة الاضاءة
-تركيب انظمة انذار الحريق
-تركيب انظمة انذار السرقة
-أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة
-تركيب انظمة اضاءة الطرق ومهابط الطائرات
-تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين
-التركيبات الكهربائية الأخرى
-تركيب وصيانة أجهزة ومعدات الإنذار من الحريق
-تركيب انظمة انذار السرقة
-تركيب وصيانة الأجهزة الأمنية
-تركيب وصيانة أجهزة السلامة المرورية
-أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة
-أعمال السباكة والتدفئة وتكييف الهواء
-تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها
-تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها
-تركيب الادوات الصحية وصيانتها واصلاحها
-تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها
-تمديدات انابيب الغاز وصيانتها واصلاحها
-تمديدات انابيب البخار وصيانتها واصلاحها
-تمديدات انابيب الحريق وصيانتها واصلاحها
-تمديدات انابيب الري وصيانتها واصلاحها
-تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح
-تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها
-تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح
-تركيبات إنشائية أخرى
-تركيب وإصلاح وصي</t>
-  </si>
-  <si>
-    <t>شركة الماء الاحمر لهندسة المشاريع</t>
-  </si>
-  <si>
-    <t>10001191</t>
-  </si>
-  <si>
-    <t>awad@redwater.sa</t>
-  </si>
-  <si>
-    <t>تصميم وتوريد وتركيب أنظمة الإنذار المبكر و مكافحةالحريق إعتماد مخططات السلامة و تسليم المشاريع وإصدارتراخيص الدفاع المدني تركيب وتوريد كافة انظمة السلامة ‏جوال-0507505464-0505895051 إيميل safety@redwater-se.com</t>
-  </si>
-  <si>
-    <t>أنشطة التشييد المتخصصة
-التركيبات الكهربائية
-تركيب انظمة الاضاءة
-تركيب انظمة انذار الحريق
-أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة</t>
-  </si>
-  <si>
-    <t>مؤسسة دروب الديكور للمقاولات</t>
-  </si>
-  <si>
-    <t>300330037</t>
-  </si>
-  <si>
-    <t>2023/01/15</t>
-  </si>
-  <si>
-    <t>wwttww101@gmail.com</t>
-  </si>
-  <si>
-    <t>تشييد المباني
-تشييد المباني
-الإنشاءات العامة للمباني السكنية
-الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
-الإنشاءات العامة للمباني الغير السكنية المطارات
-الإنشاءات العامة للمباني الغير السكنية الحديدية
-الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
-إنشاءات المباني الجاهزة في المواقع
-ترميمات المباني السكنية والغير سكنية
-أنشطة التشييد المتخصصة
-الهدم
-هدم وإزالة المباني وغيرها
-أنشطة أخرى من الهدم
-تحضير الموقع
-اعداد وتجهيز المواقع من الحفر والتسوية
-صب القواعد والاساسات
-سحب المياه الجوفية وتجفيف المواقع
-التفجير والنسف
-أنشطة أخرى لتحضير الموقع
-التركيبات الكهربائية
-تمديد الاسلاك الكهربائية
-تمديد اسلاك الاتصالات
-تمديدات الشبكات
-أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات
-تركيب وتمديد شبكات التلفزيون والستلايت
-تركيب وتمديد شبكات الكمبيوتر والاتصالات
-أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات
-تركيب انظمة الاضاءة
-تركيب انظمة انذار الحريق
-تركيب انظمة انذار السرقة
-أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة
-تركيب انظمة اضاءة الطرق ومهابط الطائرات
-تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين
-التركيبات الكهربائية الأخرى
-تركيب وصيانة أجهزة ومعدات الإنذار من الحريق
-تركيب انظمة انذار السرقة
-تركيب وصيانة الأجهزة الأمنية
-تركيب وصيانة أ</t>
-  </si>
-  <si>
-    <t>مؤسسة عبدالله احمد البريكي للمقاولات</t>
-  </si>
-  <si>
-    <t>429942999</t>
-  </si>
-  <si>
-    <t>2024/01/13</t>
-  </si>
-  <si>
-    <t>abduallah@albriki.com</t>
-  </si>
-  <si>
-    <t>مؤسسة اعتدال طاهر البوحسن للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>403840381</t>
-  </si>
-  <si>
-    <t>2023/11/21</t>
-  </si>
-  <si>
-    <t>abdmab2020@hotmail.com</t>
-  </si>
-  <si>
-    <t>المبرز</t>
-  </si>
-  <si>
-    <t>شركة المشروعات للخدمات البحرية</t>
-  </si>
-  <si>
-    <t>100003838</t>
-  </si>
-  <si>
-    <t>2018/10/09</t>
-  </si>
-  <si>
-    <t>+966126510721</t>
-  </si>
-  <si>
-    <t>ali@pc-marine.net</t>
-  </si>
-  <si>
-    <t>عنوان
-الغيثي بلازا طريق المدينة النازل خلف وزارة النقل تلفون ـ 6510721-012 فاكس ـ 6510749-012 ص.ب 10611 جدة 21443</t>
-  </si>
-  <si>
-    <t>مؤسسة فاطمه عبيد الصلبي للمقاولات</t>
-  </si>
-  <si>
-    <t>383638367</t>
-  </si>
-  <si>
-    <t>2023/10/11</t>
-  </si>
-  <si>
-    <t>saoooood1406@hotmail.com</t>
-  </si>
-  <si>
-    <t>شركة الرسالة التطويرية للخدمات العقارية</t>
-  </si>
-  <si>
-    <t>174717474</t>
-  </si>
-  <si>
-    <t>2022/01/30</t>
-  </si>
-  <si>
-    <t>+966138988088</t>
-  </si>
-  <si>
-    <t>almubham@yahoo.com</t>
-  </si>
-  <si>
-    <t>الخبر</t>
-  </si>
-  <si>
-    <t>تشييد المباني
-تشييد المباني
-الإنشاءات العامة للمباني السكنية
-الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
-الإنشاءات العامة للمباني الغير السكنية المطارات
-الإنشاءات العامة للمباني الغير السكنية الحديدية
-الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
-إنشاءات المباني الجاهزة في المواقع
-ترميمات المباني السكنية والغير سكنية
-أنشطة التشييد المتخصصة
-اكمال المباني وتشطيبها
-تشطيب المباني
-تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية
-تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم
-تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية
-تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق
-تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب
-تركيب السيراميك والكاشي
-تركيب الرخام
-تركيب الحجر
-أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد
-أعمال التجصيص والمساح
-أعمال الدهانات والطلاء للمباني الداخلية والخارجية</t>
-  </si>
-  <si>
-    <t>شركة صالح عبدالرحمن اللحيدان للمقاولات</t>
-  </si>
-  <si>
-    <t>385438549</t>
-  </si>
-  <si>
-    <t>2023/10/15</t>
-  </si>
-  <si>
-    <t>saleh_est30@yahoo.com</t>
-  </si>
-  <si>
-    <t>بريدة</t>
-  </si>
-  <si>
-    <t>القصيم</t>
-  </si>
-  <si>
-    <t>شركة رسا الجزيرة للاتصالات</t>
-  </si>
-  <si>
-    <t>356335635</t>
-  </si>
-  <si>
-    <t>2023/08/21</t>
-  </si>
-  <si>
-    <t>omar@rasacommunication.com</t>
-  </si>
-  <si>
-    <t>شركة تطوير المرافق المتقدمة للمقاولات عامة</t>
-  </si>
-  <si>
-    <t>445044507</t>
-  </si>
-  <si>
-    <t>2024/02/10</t>
-  </si>
-  <si>
-    <t>a.f.d.co@outlook.com</t>
-  </si>
-  <si>
-    <t>تشييد المباني
-تشييد المباني
-الإنشاءات العامة للمباني السكنية
-الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ )
-الإنشاءات العامة للمباني الغير السكنية المطارات
-الإنشاءات العامة للمباني الغير السكنية الحديدية
-الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق
-إنشاءات المباني الجاهزة في المواقع
-ترميمات المباني السكنية والغير سكنية
-الهندسة المدنية
-تشييد المشاريع الخاصة بالمنافع
-تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها
-إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه
-إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات
-إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات
-إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار
-إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه
-إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية
-إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات
-إصلاح وصيانة محطات الطاقة الكهربائية والمحولات
-أنشطة التشييد المتخصصة
-الهدم
-هدم وإزالة المباني وغيرها
-أنشطة أخرى من الهدم
-تحضير الموقع
-اعداد وتجهيز المواقع من الحفر والتسوية
-صب القواعد والاساسات
-سحب المياه الجوفية وتجفيف المواقع
-التركيبات الكهربائية
-تمديد الاسلاك الكهربائية
-تمديد اسلاك الاتصالات
-تمديدات الشبكات
-تركيب وتمديد شبكات التلفزيون والستلايت
-تركيب وتمديد شبكات الكمبيوتر والاتصالات
-تركيب انظمة الاضاءة
-تركيبات إنشائية أخرى
-تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات
-تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية
-اكمال المباني وتشطيبها
-تشطيب المباني
-تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية
-تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم
-تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية
-تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق
-تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب
-تركيب السيراميك والكاشي
-تركيب الرخام
-تركيب الحجر
-تركيب القرميد
-أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد
-تغطية الارضيات خشب الباركيه
-تغطية الارضيات بالمطاط والمشمع والبلاستيك
-تغطية ارضيات بانواع اخرى
-أعمال التجصيص والمساح
-أعمال الدهانات والطلاء للمباني الداخلية والخارجية
-أعمال الدهانات والطلاء لهياكل الهندسة الحديثة
-أنشطة أخرى من أعمال التجصيص والدهانات والطلاء</t>
-  </si>
-  <si>
-    <t>مؤسسة دخيل الله دخيل عوده السفياني لادوات ومواد السلامة</t>
-  </si>
-  <si>
-    <t>429442945</t>
-  </si>
-  <si>
-    <t>2024/01/11</t>
-  </si>
-  <si>
-    <t>bm99bm@hotmail.com</t>
-  </si>
-  <si>
-    <t>الشركة العربية لخدمات الانترنت والاتصالات</t>
-  </si>
-  <si>
-    <t>100007337</t>
-  </si>
-  <si>
-    <t>2019/10/08</t>
-  </si>
-  <si>
-    <t>maleid@stcs.com.sa</t>
-  </si>
-  <si>
-    <t>ركائز العرب للتجارة</t>
-  </si>
-  <si>
-    <t>433343335</t>
-  </si>
-  <si>
-    <t>2024/01/18</t>
-  </si>
-  <si>
-    <t>mns485@gmail.com</t>
-  </si>
-  <si>
-    <t>شركة ناجي جبر العتيبي وشركاه للتجارة والمقاولات المحدودة</t>
-  </si>
-  <si>
-    <t>459245926</t>
-  </si>
-  <si>
-    <t>2024/03/09</t>
-  </si>
-  <si>
-    <t>naji-056@hotmail.com</t>
-  </si>
-  <si>
-    <t>شركة منارات الاعمار للمقاولات العامة شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>428842887</t>
-  </si>
-  <si>
-    <t>2024/01/10</t>
-  </si>
-  <si>
-    <t>g.alndawi@gmail.com</t>
-  </si>
-  <si>
-    <t>مؤسسة سواتر اعمال انشائية للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>359135916</t>
-  </si>
-  <si>
-    <t>2023/08/28</t>
-  </si>
-  <si>
-    <t>y3amen@gmail.com</t>
-  </si>
-  <si>
-    <t>مؤسسة وصل الافاق للصيانه</t>
-  </si>
-  <si>
-    <t>420442045</t>
-  </si>
-  <si>
-    <t>2023/12/25</t>
-  </si>
-  <si>
-    <t>wasalalafaq@gmail.con</t>
-  </si>
-  <si>
-    <t>القويعية</t>
+أنشطة تقديم الخدمات للمباني وتجميل المواقع
+أنشطة متكاملة لدعم المرافق
+أنشطة خدمات صيانة المباني</t>
+  </si>
+  <si>
+    <t>شركة علي مبارك ال فطيح للمقاولات</t>
+  </si>
+  <si>
+    <t>542054201</t>
+  </si>
+  <si>
+    <t>alialfetih@gmail.com</t>
+  </si>
+  <si>
+    <t>مؤسسة محمد عاتق راشد الصبحي للمقاولات العامة</t>
+  </si>
+  <si>
+    <t>424542450</t>
+  </si>
+  <si>
+    <t>m.a.s.w1979@hotmail.com</t>
   </si>
   <si>
     <t>To download full document visit our website: Barmga.com</t>
@@ -1143,6 +1411,9 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Details</t>
@@ -1779,13 +2050,7 @@
 بجانب البنك الفرنسي حي اليرموك</t>
   </si>
   <si>
-    <t>شركة تراث المشرق للمقاولات</t>
-  </si>
-  <si>
     <t>+966539057321</t>
-  </si>
-  <si>
-    <t>turath.almashrq@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 1000020000104</t>
@@ -1983,10 +2248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2013,8 +2278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2022,7 +2288,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2030,13 +2318,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2050,40 +2331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2098,22 +2348,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2127,9 +2379,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2143,7 +2401,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2170,13 +2435,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2188,31 +2495,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2224,55 +2525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2284,25 +2537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2320,7 +2555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2332,31 +2567,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2430,6 +2695,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2445,22 +2754,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2483,45 +2787,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2532,7 +2797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2553,131 +2818,131 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2693,9 +2958,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3019,12 +3281,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:N31"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3034,1113 +3296,1021 @@
     <col min="8" max="8" width="24.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14">
+        <v>79</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="H12" s="3" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="M13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="H14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="M14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>136</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="H17" s="3" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14">
+        <v>74</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="H19" s="3" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="L19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="H21" s="3" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="M21" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>172</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="H24" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I24" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="M25" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3" t="s">
-        <v>185</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="M26" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H27" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="L27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="H28" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="I28" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="M28" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -4154,11 +4324,10 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A31:M31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A31:H31" r:id="rId1" display="To download full document visit our website: Barmga.com"/>
@@ -4189,1079 +4358,1079 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>332</v>
+        <v>92</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="4" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5272,8 +5441,8 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
